--- a/reports/Debug-snowbowl-20251217/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/Debug-snowbowl-20251217/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -49,10 +49,10 @@
     <t xml:space="preserve">T104                     </t>
   </si>
   <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
     <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>department</t>
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>148619.9800</v>
+        <v>3524.0500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -532,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>3524.0500</v>
+        <v>148619.9800</v>
       </c>
     </row>
     <row r="7" spans="1:4">
